--- a/2020_FallTrip.xlsx
+++ b/2020_FallTrip.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="144">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,11 +231,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水到魚行浮淺館</t>
+    <t>airbnb手續費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北至左營高鐵票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左營至台北高鐵票(65折)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四人單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五人單價(+yo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200-1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿扣除阿蔡與折扣1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款給阿蔡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6人房費平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹丹漢堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格上租車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格上租車訂金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50嵐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三哥晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-eleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南灣停車費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,23 +367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>350/人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airbnb手續費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北至左營高鐵票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦</t>
+    <t>麋鹿小章魚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,171 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最終</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最終</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左營至台北高鐵票(65折)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四人單價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五人單價(+yo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預約早上九點 八點二十需報到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0900-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷路小章魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐(餐酒館)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIZZA ROCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮南灣路60號
-營業時間：平日12:00–15:00, 18:00–21:00 周六日12:00–15:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單點主餐大概500UP 價格偏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連鎖店 價格較親民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐(美式餐廳)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200-1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿總額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿扣除阿蔡與折扣1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款給阿蔡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6人房費平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹丹漢堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格上租車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格上租車訂金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50嵐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿三哥晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-eleven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南灣停車費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮淺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麋鹿小章魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>墾丁國家公園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,10 +592,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>週五11:00~22:00</t>
-  </si>
-  <si>
     <t>8點前要還車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逢甲夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週五營業時間11:00~22:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,9 +1229,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,9 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,10 +1650,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1721,7 +1663,7 @@
     <col min="3" max="3" width="22.5" style="31" customWidth="1"/>
     <col min="4" max="4" width="10" style="32" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="106" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="105" customWidth="1"/>
     <col min="7" max="7" width="61.875" style="25" customWidth="1"/>
     <col min="8" max="16384" width="9" style="24"/>
   </cols>
@@ -1752,13 +1694,13 @@
     <row r="2" spans="1:7" s="23" customFormat="1">
       <c r="A2" s="66"/>
       <c r="B2" s="54" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>48</v>
@@ -1772,10 +1714,10 @@
       <c r="A3" s="67"/>
       <c r="B3" s="54"/>
       <c r="C3" s="39" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>48</v>
@@ -1789,139 +1731,139 @@
       <c r="A4" s="67"/>
       <c r="B4" s="37"/>
       <c r="C4" s="41" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F4" s="42">
         <v>500</v>
       </c>
-      <c r="G4" s="111" t="s">
-        <v>154</v>
+      <c r="G4" s="109" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="67"/>
       <c r="B5" s="37"/>
       <c r="C5" s="41" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="67"/>
       <c r="B6" s="37" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" s="42"/>
-      <c r="G6" s="111" t="s">
-        <v>135</v>
+      <c r="G6" s="109" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="67"/>
       <c r="B7" s="54" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
       <c r="G7" s="43" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="67"/>
-      <c r="B8" s="109" t="s">
-        <v>143</v>
+      <c r="B8" s="107" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="107" customFormat="1" ht="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="106" customFormat="1" ht="15">
       <c r="A9" s="67"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="110" t="s">
-        <v>153</v>
+      <c r="B9" s="110"/>
+      <c r="C9" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="108" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="67"/>
       <c r="B10" s="54" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="67"/>
       <c r="B11" s="54" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
@@ -1930,10 +1872,12 @@
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="67"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="52" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="105"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7">
@@ -1942,66 +1886,38 @@
       <c r="C13" s="38"/>
       <c r="D13" s="54"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="105"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="47"/>
       <c r="B14" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1">
       <c r="A15" s="46"/>
-      <c r="B15" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="37.5" customHeight="1">
+      <c r="B15" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="46"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="105" t="s">
-        <v>77</v>
-      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
@@ -2010,7 +1926,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="105"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
@@ -2019,29 +1935,29 @@
       <c r="C18" s="38"/>
       <c r="D18" s="54"/>
       <c r="E18" s="52"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="46"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="D19" s="54"/>
       <c r="E19" s="52"/>
-      <c r="F19" s="105"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="46"/>
-      <c r="B20" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>127</v>
-      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="54"/>
       <c r="E20" s="52"/>
-      <c r="F20" s="105"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7">
@@ -2050,7 +1966,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="54"/>
       <c r="E21" s="52"/>
-      <c r="F21" s="105"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7">
@@ -2059,25 +1975,25 @@
       <c r="C22" s="38"/>
       <c r="D22" s="54"/>
       <c r="E22" s="52"/>
-      <c r="F22" s="105"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="46"/>
       <c r="B23" s="54"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="46"/>
       <c r="B24" s="54"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7">
@@ -2086,43 +2002,43 @@
       <c r="C25" s="38"/>
       <c r="D25" s="54"/>
       <c r="E25" s="52"/>
-      <c r="F25" s="105"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="46"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="38"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="54"/>
       <c r="E26" s="52"/>
-      <c r="F26" s="105"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="46"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="54"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="105"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="54"/>
       <c r="C28" s="38"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="54"/>
       <c r="C29" s="38"/>
       <c r="D29" s="54"/>
       <c r="E29" s="64"/>
-      <c r="F29" s="105"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:7">
@@ -2130,9 +2046,9 @@
       <c r="B30" s="54"/>
       <c r="C30" s="38"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="65"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="46"/>
@@ -2140,24 +2056,14 @@
       <c r="C31" s="38"/>
       <c r="D31" s="54"/>
       <c r="E31" s="52"/>
-      <c r="F31" s="105"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="53"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="53"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
+  <mergeCells count="4">
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2221,22 +2127,22 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="86">
         <v>44016</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="76">
         <v>2</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="76">
         <v>805</v>
       </c>
       <c r="G2" s="10">
@@ -2250,7 +2156,7 @@
         <f>SUM(O1-H2)</f>
         <v>298</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="88" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
@@ -2261,12 +2167,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="10">
         <v>0.9</v>
       </c>
@@ -2278,17 +2184,17 @@
         <f>SUM(O1-H3)</f>
         <v>149</v>
       </c>
-      <c r="J3" s="89"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" hidden="1" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="77"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="10">
         <v>0.8</v>
       </c>
@@ -2300,15 +2206,15 @@
         <f>SUM(O2-H4)</f>
         <v>158</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" hidden="1" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="10">
         <v>0.9</v>
       </c>
@@ -2320,19 +2226,19 @@
         <f>SUM(O2-H5)</f>
         <v>79</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78">
         <v>1</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="95">
+      <c r="F6" s="94">
         <v>813</v>
       </c>
       <c r="G6" s="12">
@@ -2345,17 +2251,17 @@
       <c r="I6" s="13">
         <v>298</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="89" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="95"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="12">
         <v>0.9</v>
       </c>
@@ -2366,17 +2272,17 @@
       <c r="I7" s="13">
         <v>149</v>
       </c>
-      <c r="J7" s="90"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="79">
+      <c r="E8" s="78">
         <v>1017</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="12">
         <v>0.8</v>
       </c>
@@ -2387,15 +2293,15 @@
       <c r="I8" s="13">
         <v>158</v>
       </c>
-      <c r="J8" s="90"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="12">
         <v>0.9</v>
       </c>
@@ -2406,14 +2312,14 @@
       <c r="I9" s="13">
         <v>79</v>
       </c>
-      <c r="J9" s="90"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="26">
         <v>851</v>
@@ -2431,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickBot="1">
@@ -2443,22 +2349,22 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>44018</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <v>4</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="96">
         <v>846</v>
       </c>
       <c r="G12" s="17">
@@ -2472,17 +2378,17 @@
         <f>SUM(O1-H12)</f>
         <v>521.5</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <v>1942</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="6">
         <v>0.8</v>
       </c>
@@ -2493,15 +2399,15 @@
       <c r="I13" s="14">
         <v>298</v>
       </c>
-      <c r="J13" s="74"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="6">
         <v>0.9</v>
       </c>
@@ -2512,19 +2418,19 @@
       <c r="I14" s="14">
         <v>149</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="92" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="97">
         <v>850</v>
       </c>
       <c r="G15" s="33">
@@ -2536,17 +2442,17 @@
       <c r="I15" s="34">
         <v>521.5</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="98"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="35">
         <v>0.8</v>
       </c>
@@ -2556,15 +2462,15 @@
       <c r="I16" s="36">
         <v>298</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="98"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="35">
         <v>0.9</v>
       </c>
@@ -2574,19 +2480,19 @@
       <c r="I17" s="36">
         <v>149</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="82">
+      <c r="A18" s="77"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="81">
         <v>2</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="68">
         <v>678</v>
       </c>
       <c r="G18" s="6">
@@ -2598,17 +2504,17 @@
       <c r="I18" s="14">
         <v>298</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="73" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="6">
         <v>0.9</v>
       </c>
@@ -2618,19 +2524,19 @@
       <c r="I19" s="14">
         <v>149</v>
       </c>
-      <c r="J19" s="74"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="82">
+      <c r="A20" s="77"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="81">
         <v>3</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="68">
         <v>854</v>
       </c>
       <c r="G20" s="6">
@@ -2642,17 +2548,17 @@
       <c r="I20" s="14">
         <v>298</v>
       </c>
-      <c r="J20" s="74" t="s">
+      <c r="J20" s="73" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="7">
         <v>0.9</v>
       </c>
@@ -2662,7 +2568,7 @@
       <c r="I21" s="15">
         <v>149</v>
       </c>
-      <c r="J21" s="76"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
@@ -2677,7 +2583,7 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="69" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="5"/>
@@ -2689,7 +2595,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="F24" s="71"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="21" t="s">
         <v>39</v>
       </c>
@@ -2700,7 +2606,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="71"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="14" t="s">
         <v>35</v>
       </c>
@@ -2715,7 +2621,7 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="F26" s="71"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="14" t="s">
         <v>34</v>
       </c>
@@ -2729,7 +2635,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="F27" s="71"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="14" t="s">
         <v>36</v>
       </c>
@@ -2743,7 +2649,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="F28" s="71"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2757,7 +2663,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="F29" s="72"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="14" t="s">
         <v>38</v>
       </c>
@@ -2836,13 +2742,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="23" customFormat="1">
       <c r="A1" s="37" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>2</v>
@@ -2854,16 +2760,16 @@
         <v>1</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -2873,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="46">
         <v>50</v>
@@ -2900,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="56">
         <v>14618</v>
@@ -2921,10 +2827,10 @@
     <row r="4" spans="1:11">
       <c r="A4" s="46"/>
       <c r="B4" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="56">
         <v>171</v>
@@ -2945,10 +2851,10 @@
     <row r="5" spans="1:11">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D5" s="46">
         <f>SUM(D3:D4)</f>
@@ -2971,10 +2877,10 @@
     <row r="6" spans="1:11">
       <c r="A6" s="46"/>
       <c r="B6" s="46" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D6" s="46">
         <f>SUM(D5-I5-1000)</f>
@@ -2997,10 +2903,10 @@
     <row r="7" spans="1:11">
       <c r="A7" s="46"/>
       <c r="B7" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="46">
         <v>1490</v>
@@ -3024,10 +2930,10 @@
     <row r="8" spans="1:11">
       <c r="A8" s="46"/>
       <c r="B8" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="46">
         <v>965</v>
@@ -3049,27 +2955,27 @@
       <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="99">
+      <c r="A10" s="98">
         <v>44016</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D10" s="46">
         <v>186</v>
@@ -3088,12 +2994,12 @@
       <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="100"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="46" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D11" s="46">
         <v>471</v>
@@ -3112,12 +3018,12 @@
       <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="100"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="46" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D12" s="46">
         <v>20</v>
@@ -3136,12 +3042,12 @@
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="100"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="46" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D13" s="61">
         <v>3200</v>
@@ -3160,12 +3066,12 @@
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="100"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="46" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D14" s="61">
         <v>1200</v>
@@ -3184,12 +3090,12 @@
       <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="100"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="46" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D15" s="46">
         <v>60</v>
@@ -3208,12 +3114,12 @@
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="100"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="47" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D16" s="46">
         <v>235</v>
@@ -3232,12 +3138,12 @@
       <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="100"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="47" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D17" s="46">
         <v>270</v>
@@ -3256,12 +3162,12 @@
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="100"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="47" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D18" s="46">
         <v>150</v>
@@ -3280,12 +3186,12 @@
       <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="101"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="46" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D19" s="46">
         <v>1310</v>
@@ -3304,14 +3210,14 @@
       <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99">
+      <c r="A20" s="98">
         <v>44017</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D20" s="46">
         <v>50</v>
@@ -3330,12 +3236,12 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="100"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="47" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D21" s="46">
         <v>240</v>
@@ -3354,12 +3260,12 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="100"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="47" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D22" s="46">
         <v>50</v>
@@ -3378,12 +3284,12 @@
       <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="100"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="47" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D23" s="46">
         <v>151</v>
@@ -3402,12 +3308,12 @@
       <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="100"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="46" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D24" s="46">
         <v>100</v>
@@ -3426,12 +3332,12 @@
       <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="100"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="46" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D25" s="46">
         <v>350</v>
@@ -3450,12 +3356,12 @@
       <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="100"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="46" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D26" s="59">
         <v>2662</v>
@@ -3474,12 +3380,12 @@
       <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="100"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="46" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D27" s="46">
         <v>350</v>
@@ -3498,12 +3404,12 @@
       <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="100"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D28" s="46">
         <v>20</v>
@@ -3522,12 +3428,12 @@
       <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="100"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="46" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D29" s="46">
         <v>40</v>
@@ -3546,12 +3452,12 @@
       <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="100"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="46" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D30" s="46">
         <v>65</v>
@@ -3570,12 +3476,12 @@
       <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="100"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="46" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D31" s="46">
         <v>120</v>
@@ -3594,12 +3500,12 @@
       <c r="K31" s="46"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="100"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="46" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D32" s="46">
         <v>25</v>
@@ -3618,12 +3524,12 @@
       <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="100"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="46" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D33" s="46">
         <v>100</v>
@@ -3642,12 +3548,12 @@
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="101"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="46" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D34" s="59">
         <v>75</v>
@@ -3666,14 +3572,14 @@
       <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="99">
+      <c r="A35" s="98">
         <v>44018</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D35" s="46">
         <v>894</v>
@@ -3692,12 +3598,12 @@
       <c r="K35" s="46"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="100"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="46" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D36" s="46">
         <v>228</v>
@@ -3716,12 +3622,12 @@
       <c r="K36" s="46"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="100"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="46" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D37" s="46">
         <v>180</v>
@@ -3740,12 +3646,12 @@
       <c r="K37" s="46"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="100"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="46" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D38" s="61">
         <v>1604</v>
@@ -3764,12 +3670,12 @@
       <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="101"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="46" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D39" s="46">
         <v>180</v>
@@ -3841,7 +3747,7 @@
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="23" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F50" s="24">
         <f>SUM(F10+F11+F12+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F27+F28+F29+F30+F31+F32+F33+F35+F36+F37+F39)</f>
@@ -3854,7 +3760,7 @@
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="23" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D51" s="24">
         <v>2000</v>
@@ -3869,7 +3775,7 @@
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="23" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F52" s="24">
         <f>SUM(F51-F50)</f>
@@ -3878,7 +3784,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="23" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F54" s="24">
         <f>SUM(F6+F26+F34)</f>
@@ -3891,7 +3797,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="23" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F55" s="24">
         <f>SUM(F13+F14+F38)</f>
@@ -3904,7 +3810,7 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="23" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F56" s="24">
         <f>SUM(F7+F8)/4</f>
@@ -3917,7 +3823,7 @@
     </row>
     <row r="59" spans="3:8">
       <c r="C59" s="23" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G59" s="63">
         <f>SUM(H54+H55+H56)</f>
@@ -3930,7 +3836,7 @@
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="23" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G60" s="63">
         <f>SUM(H54+H55+H56+H50)</f>
